--- a/DateBase/orders/Nhat 48_2026-1-27.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-27.xlsx
@@ -1306,6 +1306,9 @@
       <c r="G2" t="str">
         <v>01515101510118661510101530302015105510555555510104105106105105551010615710101511010101010151015151515152840305102010131211891105559107551562301510510515</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
